--- a/biology/Botanique/Promenade_(lieu_ou_voie)/Promenade_(lieu_ou_voie).xlsx
+++ b/biology/Botanique/Promenade_(lieu_ou_voie)/Promenade_(lieu_ou_voie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une promenade est un lieu (parc, square…) ou une voie sur lesquels on se promène. Les plus notables sont indiqués ici.
 </t>
@@ -511,7 +523,9 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La promenade Sussex, à Ottawa. Le 24, promenade Sussex est la résidence du premier ministre canadien.
 La promenade Bellerive, parc à Montréal.
@@ -544,7 +558,9 @@
           <t>États-Unis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La promenade de la gloire, en anglais Walk of Fame, à Los Angeles.
 La promenade fluviale de Chicago, en anglais Chicago Riverwalk, à Chicago.
@@ -576,7 +592,9 @@
           <t>France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La promenade des Anglais, à Nice.
 La promenade Bernard-Lafay, à Paris.
@@ -617,7 +635,9 @@
           <t>Belgique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La promenade du Chemin de fer, à Bruxelles.</t>
         </is>
